--- a/ExtratoBancário.xlsx
+++ b/ExtratoBancário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scdap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F7005-FF1C-4E40-88A3-B29A9B7122B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94638F48-F5FE-43AE-9765-A8DE73240709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C5D2591-4B58-40E9-92A1-45FB6C0763F3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>tarifa bancária</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>cash receipt</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,8 +506,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>45323</v>
+      <c r="A1" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
